--- a/teaching/traditional_assets/database/data/kuwait/kuwait_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_insurance_prop_cas.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>0.7849162011173184</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="J2">
-        <v>0.7764458824002251</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="K2">
-        <v>2.75</v>
+        <v>-15.9</v>
       </c>
       <c r="L2">
-        <v>0.7681564245810055</v>
+        <v>1.370689655172414</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,22 +624,37 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="V2">
-        <v>0.0009701492537313432</v>
+        <v>0.001538461538461538</v>
+      </c>
+      <c r="W2">
+        <v>-0.4746268656716418</v>
       </c>
       <c r="X2">
-        <v>0.04778163421456283</v>
+        <v>0.04466387908263446</v>
+      </c>
+      <c r="Y2">
+        <v>-0.5192907447542763</v>
+      </c>
+      <c r="Z2">
+        <v>-0.3464030817929346</v>
+      </c>
+      <c r="AA2">
+        <v>-0.3822378833577209</v>
       </c>
       <c r="AB2">
-        <v>0.04778163421456283</v>
+        <v>0.04466387908263446</v>
+      </c>
+      <c r="AC2">
+        <v>-0.4269017624403554</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -651,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.013</v>
+        <v>-0.02</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -660,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0009710913572869201</v>
+        <v>-0.001540832049306626</v>
       </c>
       <c r="AK2">
-        <v>-0.0003882103502851852</v>
+        <v>-0.0006973500697350069</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -689,22 +704,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>0.7849162011173184</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="J3">
-        <v>0.7764458824002251</v>
+        <v>1.103448275862069</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>-15.9</v>
       </c>
       <c r="L3">
-        <v>0.7681564245810055</v>
+        <v>1.370689655172414</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -713,7 +728,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -722,22 +737,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="V3">
-        <v>0.0009701492537313432</v>
+        <v>0.001538461538461538</v>
+      </c>
+      <c r="W3">
+        <v>-0.4746268656716418</v>
       </c>
       <c r="X3">
-        <v>0.04778163421456283</v>
+        <v>0.04466387908263446</v>
+      </c>
+      <c r="Y3">
+        <v>-0.5192907447542763</v>
+      </c>
+      <c r="Z3">
+        <v>-0.3464030817929346</v>
+      </c>
+      <c r="AA3">
+        <v>-0.3822378833577209</v>
       </c>
       <c r="AB3">
-        <v>0.04778163421456283</v>
+        <v>0.04466387908263446</v>
+      </c>
+      <c r="AC3">
+        <v>-0.4269017624403554</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -749,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.013</v>
+        <v>-0.02</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -758,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0009710913572869201</v>
+        <v>-0.001540832049306626</v>
       </c>
       <c r="AK3">
-        <v>-0.0003882103502851852</v>
+        <v>-0.0006973500697350069</v>
       </c>
       <c r="AL3">
         <v>0</v>
